--- a/Algorithmization/DetectorAutomat/Конечный автомат.xlsx
+++ b/Algorithmization/DetectorAutomat/Конечный автомат.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VTProjects\Novocollege2\Algorithmization\DetectorAutomat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Work\Algorithmization\DetectorAutomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,9 +68,6 @@
     <t>Концевой маркер</t>
   </si>
   <si>
-    <t>-|</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -117,12 +114,15 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>┤</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:J39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -762,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
@@ -770,22 +770,22 @@
         <v>13</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>4</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>3</v>
-      </c>
-      <c r="L11" s="4">
-        <v>4</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -853,19 +853,19 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
@@ -873,19 +873,19 @@
     </row>
     <row r="16" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.35">
@@ -901,40 +901,40 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="1">
-        <v>3</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="L24" s="1">
-        <v>3</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="1">
-        <v>4</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.35">
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.35">
@@ -999,36 +999,36 @@
         <v>3</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J29" s="11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P29" s="1">
         <v>4</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.35">
@@ -1039,22 +1039,22 @@
         <v>1</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.35">
@@ -1071,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="16">
         <v>2</v>
@@ -1083,13 +1083,13 @@
         <v>3</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.35">
@@ -1109,22 +1109,22 @@
         <v>1</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>3</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16">
         <v>4</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -1164,25 +1164,25 @@
         <v>4</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="16">
         <v>6</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" s="16">
         <v>5</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -1193,25 +1193,25 @@
         <v>5</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="16">
         <v>2</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -1222,25 +1222,25 @@
         <v>6</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="16">
         <v>4</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -1248,28 +1248,28 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C37" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K37" s="1">
         <v>1</v>
@@ -1277,28 +1277,28 @@
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C38" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -1306,28 +1306,28 @@
     </row>
     <row r="39" spans="3:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C39" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>

--- a/Algorithmization/DetectorAutomat/Конечный автомат.xlsx
+++ b/Algorithmization/DetectorAutomat/Конечный автомат.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Work\Algorithmization\DetectorAutomat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VTProjects\Novocollege2\Algorithmization\DetectorAutomat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Конечный автомат" sheetId="1" r:id="rId1"/>
+    <sheet name="Особые случаи" sheetId="2" r:id="rId2"/>
+    <sheet name="Оптимизация автоматов" sheetId="3" r:id="rId3"/>
+    <sheet name="Числовые константы" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="113">
   <si>
     <t>Конечный автомат</t>
   </si>
@@ -117,13 +120,282 @@
   </si>
   <si>
     <t>┤</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>Æ</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>любой</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Отвергает</t>
+  </si>
+  <si>
+    <t>Допускает</t>
+  </si>
+  <si>
+    <t>Условия эквивалентности:</t>
+  </si>
+  <si>
+    <t>1. Условие подобия</t>
+  </si>
+  <si>
+    <t>2. Условие преемственности</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>неэквивалентны</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>эквивалентны</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A = {0, 1, 2}</t>
+  </si>
+  <si>
+    <t>B = {3, 5, 7}</t>
+  </si>
+  <si>
+    <t>Недостижимые состояния</t>
+  </si>
+  <si>
+    <t>s0</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>s4 - недостижимое</t>
+  </si>
+  <si>
+    <t>s6, s8 - недостижимые</t>
+  </si>
+  <si>
+    <t>Построение списка достижимых состояний</t>
+  </si>
+  <si>
+    <t>1. Начать начальным состоянием</t>
+  </si>
+  <si>
+    <t>2. Для каждого внесенного в список добавить преемников</t>
+  </si>
+  <si>
+    <t>Приведенный (минимальный) автомат - не содержит недостижимых и эквивалентных состояний.</t>
+  </si>
+  <si>
+    <t>{1, 2, 3, 4}, {5, 6, 7}</t>
+  </si>
+  <si>
+    <t>блок 1, буква a:</t>
+  </si>
+  <si>
+    <t>{1, 2}, {3, 4}, {5, 6, 7}</t>
+  </si>
+  <si>
+    <t>блок 1 без изменений</t>
+  </si>
+  <si>
+    <t>блок 2, буква a:</t>
+  </si>
+  <si>
+    <t>{1, 2}, {3}, {4}, {5, 6, 7}</t>
+  </si>
+  <si>
+    <t>блок 4, буква a:</t>
+  </si>
+  <si>
+    <t>{1, 2}, {3}, {4}, {5}, {6, 7}</t>
+  </si>
+  <si>
+    <t>блок 5 без изменений</t>
+  </si>
+  <si>
+    <t>{1, 2}</t>
+  </si>
+  <si>
+    <t>{3}</t>
+  </si>
+  <si>
+    <t>{4}</t>
+  </si>
+  <si>
+    <t>{5}</t>
+  </si>
+  <si>
+    <t>{6, 7}</t>
+  </si>
+  <si>
+    <t>{0, 1, 2, 3, 4, 5, 6, F, E}, {S}</t>
+  </si>
+  <si>
+    <t>Концевой маркер:</t>
+  </si>
+  <si>
+    <t>{0, 2, 3, 4, 6, F, E}, {1, 5}, {S}</t>
+  </si>
+  <si>
+    <t>{0, 2}, {3, 4, 6, F, E}, {1, 5}, {S}</t>
+  </si>
+  <si>
+    <t>{0, 2}, {3, 6, F, E}, {4}, {1, 5}, {S}</t>
+  </si>
+  <si>
+    <t>{0, 2}, {3, 6}, {F, E}, {4}, {1, 5}, {S}</t>
+  </si>
+  <si>
+    <t>{0, 2}, {1}, {3, 6}, {4}, {5}, {S}, {F, E}</t>
+  </si>
+  <si>
+    <t>{0, 2}</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>{3, 6}</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>{F, E}</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Числовые константы</t>
+  </si>
+  <si>
+    <t>15.25</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>.32</t>
+  </si>
+  <si>
+    <t>Неверные последовательности:</t>
+  </si>
+  <si>
+    <t>12E5</t>
+  </si>
+  <si>
+    <t>0.25E+1</t>
+  </si>
+  <si>
+    <t>11E-5</t>
+  </si>
+  <si>
+    <t>Мантисса</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>Порядок</t>
+  </si>
+  <si>
+    <t>Общий вид записи:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,16 +412,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -237,11 +529,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -284,6 +602,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -566,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -855,17 +1199,17 @@
       <c r="I15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>14</v>
+      <c r="J15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
@@ -875,13 +1219,13 @@
       <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="25" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="10" t="s">
@@ -897,43 +1241,43 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="1">
-        <v>3</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="21">
+        <v>3</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="1">
-        <v>3</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="L24" s="21">
+        <v>3</v>
+      </c>
+      <c r="M24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="1">
-        <v>4</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="N24" s="21">
+        <v>4</v>
+      </c>
+      <c r="O24" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1070,11 +1414,11 @@
       <c r="C31" s="21">
         <v>1</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>29</v>
+      <c r="D31" s="15">
+        <v>1</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1</v>
       </c>
       <c r="F31" s="16">
         <v>2</v>
@@ -1166,8 +1510,8 @@
       <c r="D34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>29</v>
+      <c r="E34" s="16">
+        <v>4</v>
       </c>
       <c r="F34" s="16">
         <v>6</v>
@@ -1337,4 +1681,2048 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="21.75" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>4</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="21">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17">
+        <v>5</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>2</v>
+      </c>
+      <c r="H4" s="15">
+        <v>3</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B5" s="21">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>3</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="21">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="18">
+        <v>2</v>
+      </c>
+      <c r="I6" s="20">
+        <v>3</v>
+      </c>
+      <c r="J6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20">
+        <v>3</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="21">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="21"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B21" s="21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>3</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="14">
+        <v>3</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B22" s="21">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
+      <c r="D22" s="17">
+        <v>5</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" s="15">
+        <v>6</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B23" s="21">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2</v>
+      </c>
+      <c r="D23" s="17">
+        <v>7</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="17"/>
+      <c r="M23" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="15">
+        <v>6</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23" s="21">
+        <v>4</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" s="17">
+        <v>6</v>
+      </c>
+      <c r="U23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="21">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15">
+        <v>6</v>
+      </c>
+      <c r="D24" s="17">
+        <v>7</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="17"/>
+      <c r="M24" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="15">
+        <v>6</v>
+      </c>
+      <c r="O24" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24" s="21">
+        <v>6</v>
+      </c>
+      <c r="S24" s="18">
+        <v>6</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B25" s="21">
+        <v>4</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+      <c r="D25" s="17">
+        <v>6</v>
+      </c>
+      <c r="E25" s="21">
+        <v>1</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="17"/>
+      <c r="M25" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="15">
+        <v>6</v>
+      </c>
+      <c r="O25" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B26" s="21">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15">
+        <v>6</v>
+      </c>
+      <c r="D26" s="17">
+        <v>5</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="17"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B27" s="21">
+        <v>6</v>
+      </c>
+      <c r="C27" s="15">
+        <v>6</v>
+      </c>
+      <c r="D27" s="17">
+        <v>3</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="17"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="21">
+        <v>7</v>
+      </c>
+      <c r="C28" s="18">
+        <v>6</v>
+      </c>
+      <c r="D28" s="20">
+        <v>3</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="17"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="17"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="G29" s="21"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="17"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="21"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="20"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="M32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21">
+        <v>0</v>
+      </c>
+      <c r="D37" s="21">
+        <v>1</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21">
+        <v>0</v>
+      </c>
+      <c r="I37" s="21">
+        <v>1</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21">
+        <v>0</v>
+      </c>
+      <c r="N37" s="21">
+        <v>1</v>
+      </c>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B38" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" s="21">
+        <v>0</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O38" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B39" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="21">
+        <v>1</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B40" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="21">
+        <v>1</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="21">
+        <v>1</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B41" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="21">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="21">
+        <v>0</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B42" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="21">
+        <v>0</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" s="21">
+        <v>0</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N42" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O42" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="21">
+        <v>0</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J43" s="21">
+        <v>1</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N43" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O43" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B44" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="21">
+        <v>1</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="21">
+        <v>1</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J45" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B51" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B54" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P58" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="21"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B59" s="21">
+        <v>1</v>
+      </c>
+      <c r="C59" s="12">
+        <v>6</v>
+      </c>
+      <c r="D59" s="14">
+        <v>3</v>
+      </c>
+      <c r="E59" s="21">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M59" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="N59" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P59" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B60" s="21">
+        <v>2</v>
+      </c>
+      <c r="C60" s="15">
+        <v>7</v>
+      </c>
+      <c r="D60" s="17">
+        <v>3</v>
+      </c>
+      <c r="E60" s="21">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M60" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="N60" s="21">
+        <v>3</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P60" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B61" s="21">
+        <v>3</v>
+      </c>
+      <c r="C61" s="15">
+        <v>1</v>
+      </c>
+      <c r="D61" s="17">
+        <v>5</v>
+      </c>
+      <c r="E61" s="21">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M61" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N61" s="21">
+        <v>4</v>
+      </c>
+      <c r="O61" s="15">
+        <v>4</v>
+      </c>
+      <c r="P61" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q61" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B62" s="21">
+        <v>4</v>
+      </c>
+      <c r="C62" s="15">
+        <v>4</v>
+      </c>
+      <c r="D62" s="17">
+        <v>6</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M62" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N62" s="21">
+        <v>5</v>
+      </c>
+      <c r="O62" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P62" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="21">
+        <v>5</v>
+      </c>
+      <c r="C63" s="15">
+        <v>7</v>
+      </c>
+      <c r="D63" s="17">
+        <v>3</v>
+      </c>
+      <c r="E63" s="21">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M63" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="N63" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O63" s="18">
+        <v>4</v>
+      </c>
+      <c r="P63" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q63" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B64" s="21">
+        <v>6</v>
+      </c>
+      <c r="C64" s="15">
+        <v>4</v>
+      </c>
+      <c r="D64" s="17">
+        <v>1</v>
+      </c>
+      <c r="E64" s="21">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="21">
+        <v>7</v>
+      </c>
+      <c r="C65" s="18">
+        <v>4</v>
+      </c>
+      <c r="D65" s="20">
+        <v>2</v>
+      </c>
+      <c r="E65" s="21">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="F66" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B71" s="21">
+        <v>0</v>
+      </c>
+      <c r="C71" s="12">
+        <v>1</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B72" s="21">
+        <v>1</v>
+      </c>
+      <c r="C72" s="15">
+        <v>1</v>
+      </c>
+      <c r="D72" s="16">
+        <v>1</v>
+      </c>
+      <c r="E72" s="16">
+        <v>2</v>
+      </c>
+      <c r="F72" s="16">
+        <v>3</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B73" s="21">
+        <v>2</v>
+      </c>
+      <c r="C73" s="15">
+        <v>1</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B74" s="21">
+        <v>3</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="16">
+        <v>4</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B75" s="21">
+        <v>4</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="16">
+        <v>4</v>
+      </c>
+      <c r="E75" s="16">
+        <v>6</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="16">
+        <v>5</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B76" s="21">
+        <v>5</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="16">
+        <v>2</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B77" s="21">
+        <v>6</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="16">
+        <v>4</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B78" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B79" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="12">
+        <v>1</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J83" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21">
+        <v>1</v>
+      </c>
+      <c r="C84" s="15">
+        <v>1</v>
+      </c>
+      <c r="D84" s="16">
+        <v>1</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="16">
+        <v>4</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H85" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J85" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21">
+        <v>4</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" s="16">
+        <v>4</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G86" s="16">
+        <v>5</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J86" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21">
+        <v>5</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I88" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J88" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I89" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J89" s="21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>